--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Prn</t>
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.091324666666667</v>
+        <v>0.106052</v>
       </c>
       <c r="H2">
-        <v>3.273974</v>
+        <v>0.318156</v>
       </c>
       <c r="I2">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="J2">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N2">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q2">
-        <v>76.09170294611111</v>
+        <v>9.729942203449331</v>
       </c>
       <c r="R2">
-        <v>684.8253265149999</v>
+        <v>87.56947983104398</v>
       </c>
       <c r="S2">
-        <v>0.07404747811657028</v>
+        <v>0.02027100565646612</v>
       </c>
       <c r="T2">
-        <v>0.07404747811657028</v>
+        <v>0.02027100565646613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.091324666666667</v>
+        <v>0.106052</v>
       </c>
       <c r="H3">
-        <v>3.273974</v>
+        <v>0.318156</v>
       </c>
       <c r="I3">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="J3">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>428.209</v>
       </c>
       <c r="O3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q3">
-        <v>155.7716813962222</v>
+        <v>15.13747362266667</v>
       </c>
       <c r="R3">
-        <v>1401.945132566</v>
+        <v>136.237262604</v>
       </c>
       <c r="S3">
-        <v>0.1515868317145822</v>
+        <v>0.03153685880280991</v>
       </c>
       <c r="T3">
-        <v>0.1515868317145822</v>
+        <v>0.03153685880280992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.091324666666667</v>
+        <v>0.106052</v>
       </c>
       <c r="H4">
-        <v>3.273974</v>
+        <v>0.318156</v>
       </c>
       <c r="I4">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="J4">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N4">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q4">
-        <v>215.0100426002296</v>
+        <v>17.77775672880267</v>
       </c>
       <c r="R4">
-        <v>1935.090383402066</v>
+        <v>159.999810559224</v>
       </c>
       <c r="S4">
-        <v>0.209233737817101</v>
+        <v>0.03703752804215866</v>
       </c>
       <c r="T4">
-        <v>0.209233737817101</v>
+        <v>0.03703752804215866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.091324666666667</v>
+        <v>0.106052</v>
       </c>
       <c r="H5">
-        <v>3.273974</v>
+        <v>0.318156</v>
       </c>
       <c r="I5">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="J5">
-        <v>0.6027532085264665</v>
+        <v>0.1062206075109891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N5">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q5">
-        <v>172.5199576749171</v>
+        <v>8.339982765558666</v>
       </c>
       <c r="R5">
-        <v>1552.679619074254</v>
+        <v>75.059844890028</v>
       </c>
       <c r="S5">
-        <v>0.167885160878213</v>
+        <v>0.01737521500955441</v>
       </c>
       <c r="T5">
-        <v>0.167885160878213</v>
+        <v>0.01737521500955441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>2.157725</v>
       </c>
       <c r="I6">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408634</v>
       </c>
       <c r="J6">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408636</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N6">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q6">
-        <v>50.14852584027778</v>
+        <v>65.98819302775277</v>
       </c>
       <c r="R6">
-        <v>451.3367325625</v>
+        <v>593.893737249775</v>
       </c>
       <c r="S6">
-        <v>0.04880127170193673</v>
+        <v>0.1374773874454619</v>
       </c>
       <c r="T6">
-        <v>0.04880127170193674</v>
+        <v>0.1374773874454619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>2.157725</v>
       </c>
       <c r="I7">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408634</v>
       </c>
       <c r="J7">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408636</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>428.209</v>
       </c>
       <c r="O7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q7">
         <v>102.6619182805556</v>
@@ -883,10 +883,10 @@
         <v>923.957264525</v>
       </c>
       <c r="S7">
-        <v>0.09990387720285711</v>
+        <v>0.2138820850786816</v>
       </c>
       <c r="T7">
-        <v>0.09990387720285712</v>
+        <v>0.2138820850786816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,10 +915,10 @@
         <v>2.157725</v>
       </c>
       <c r="I8">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408634</v>
       </c>
       <c r="J8">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408636</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N8">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q8">
-        <v>141.7031852328639</v>
+        <v>120.5682436844056</v>
       </c>
       <c r="R8">
-        <v>1275.328667095775</v>
+        <v>1085.11419315965</v>
       </c>
       <c r="S8">
-        <v>0.13789628962582</v>
+        <v>0.251187468395274</v>
       </c>
       <c r="T8">
-        <v>0.13789628962582</v>
+        <v>0.251187468395274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -977,10 +977,10 @@
         <v>2.157725</v>
       </c>
       <c r="I9">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408634</v>
       </c>
       <c r="J9">
-        <v>0.3972467914735334</v>
+        <v>0.7203851580408636</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N9">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q9">
-        <v>113.6999333758028</v>
+        <v>56.56152740421389</v>
       </c>
       <c r="R9">
-        <v>1023.299400382225</v>
+        <v>509.053746637925</v>
       </c>
       <c r="S9">
-        <v>0.1106453529429196</v>
+        <v>0.117838217121446</v>
       </c>
       <c r="T9">
-        <v>0.1106453529429196</v>
+        <v>0.1178382171214461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.173119</v>
+      </c>
+      <c r="H10">
+        <v>0.519357</v>
+      </c>
+      <c r="I10">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="J10">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>91.74689966666665</v>
+      </c>
+      <c r="N10">
+        <v>275.2406989999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1908387282982634</v>
+      </c>
+      <c r="P10">
+        <v>0.1908387282982634</v>
+      </c>
+      <c r="Q10">
+        <v>15.88313152339366</v>
+      </c>
+      <c r="R10">
+        <v>142.948183710543</v>
+      </c>
+      <c r="S10">
+        <v>0.03309033519633537</v>
+      </c>
+      <c r="T10">
+        <v>0.03309033519633537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.173119</v>
+      </c>
+      <c r="H11">
+        <v>0.519357</v>
+      </c>
+      <c r="I11">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="J11">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>142.7363333333333</v>
+      </c>
+      <c r="N11">
+        <v>428.209</v>
+      </c>
+      <c r="O11">
+        <v>0.296899627499751</v>
+      </c>
+      <c r="P11">
+        <v>0.296899627499751</v>
+      </c>
+      <c r="Q11">
+        <v>24.71037129033333</v>
+      </c>
+      <c r="R11">
+        <v>222.393341613</v>
+      </c>
+      <c r="S11">
+        <v>0.05148068361825943</v>
+      </c>
+      <c r="T11">
+        <v>0.05148068361825943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.173119</v>
+      </c>
+      <c r="H12">
+        <v>0.519357</v>
+      </c>
+      <c r="I12">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="J12">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>167.6324513333334</v>
+      </c>
+      <c r="N12">
+        <v>502.8973540000001</v>
+      </c>
+      <c r="O12">
+        <v>0.348684957750095</v>
+      </c>
+      <c r="P12">
+        <v>0.348684957750095</v>
+      </c>
+      <c r="Q12">
+        <v>29.02036234237534</v>
+      </c>
+      <c r="R12">
+        <v>261.183261081378</v>
+      </c>
+      <c r="S12">
+        <v>0.06045996131266232</v>
+      </c>
+      <c r="T12">
+        <v>0.06045996131266232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.173119</v>
+      </c>
+      <c r="H13">
+        <v>0.519357</v>
+      </c>
+      <c r="I13">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="J13">
+        <v>0.1733942344481473</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>78.64050433333334</v>
+      </c>
+      <c r="N13">
+        <v>235.921513</v>
+      </c>
+      <c r="O13">
+        <v>0.1635766864518907</v>
+      </c>
+      <c r="P13">
+        <v>0.1635766864518907</v>
+      </c>
+      <c r="Q13">
+        <v>13.61416546968233</v>
+      </c>
+      <c r="R13">
+        <v>122.527489227141</v>
+      </c>
+      <c r="S13">
+        <v>0.02836325432089022</v>
+      </c>
+      <c r="T13">
+        <v>0.02836325432089022</v>
       </c>
     </row>
   </sheetData>
